--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivenugopal\GitWorkSpace\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53926368-65A3-4507-A5E8-1CBED23BF4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB5F7C-B38E-49DC-9803-4EC07C62D5BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>First Name</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>jaksdhas12</t>
+  </si>
+  <si>
+    <t>alertText</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
   </si>
 </sst>
 </file>
@@ -369,20 +375,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,8 +399,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -403,8 +413,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -413,6 +426,9 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivenugopal\GitWorkSpace\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB5F7C-B38E-49DC-9803-4EC07C62D5BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2956ED49-6005-4945-BA26-DD6D387A1ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>First Name</t>
   </si>
@@ -42,16 +42,7 @@
     <t>Gopal</t>
   </si>
   <si>
-    <t>padma</t>
-  </si>
-  <si>
-    <t>kumari</t>
-  </si>
-  <si>
     <t>5a00072</t>
-  </si>
-  <si>
-    <t>jaksdhas12</t>
   </si>
   <si>
     <t>alertText</t>
@@ -375,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,7 +391,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -411,24 +402,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
